--- a/src/test/resources/excel/reference/output_single2sheet.xlsx
+++ b/src/test/resources/excel/reference/output_single2sheet.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0"/>
-  <xr:revisionPtr documentId="10_ncr:100000_{791737B3-685B-4947-996E-D745F1F47488}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{791737B3-685B-4947-996E-D745F1F47488}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="11790" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="単一シート出力テンプレート" r:id="rId1" sheetId="1"/>
-    <sheet name="単一シート出力テンプレート (2)" r:id="rId2" sheetId="3"/>
+    <sheet name="単一シート出力テンプレート" sheetId="1" r:id="rId1"/>
+    <sheet name="単一シート出力テンプレート (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">単一シート出力テンプレート!$A$1:$G$24</definedName>
-    <definedName localSheetId="1" name="_xlnm.Print_Area">'単一シート出力テンプレート (2)'!$A$1:$G$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">単一シート出力テンプレート!$A$1:$G$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'単一シート出力テンプレート (2)'!$A$1:$G$24</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
 </workbook>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
   <si>
     <t>テキスト</t>
     <phoneticPr fontId="1"/>
@@ -61,47 +61,47 @@
   </si>
   <si>
     <t>数値</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>スウチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>数式（数値＋１）</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>スウシキ</t>
     </rPh>
-    <rPh eb="5" sb="3">
+    <rPh sb="3" eb="5">
       <t>スウチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>非ロックセル</t>
-    <rPh eb="1" sb="0">
+    <rPh sb="0" eb="1">
       <t>ヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>参照式赤文字</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>サンショウ</t>
     </rPh>
-    <rPh eb="3" sb="2">
+    <rPh sb="2" eb="3">
       <t>シキ</t>
     </rPh>
-    <rPh eb="4" sb="3">
+    <rPh sb="3" eb="4">
       <t>アカ</t>
     </rPh>
-    <rPh eb="6" sb="4">
+    <rPh sb="4" eb="6">
       <t>モジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>合計</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -112,35 +112,35 @@
   </si>
   <si>
     <t>商品コード</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>ショウヒン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>商品名</t>
-    <rPh eb="3" sb="0">
+    <rPh sb="0" eb="3">
       <t>ショウヒンメイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>単価</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>タンカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>数量</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>スウリョウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>金額</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>キンガク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -163,7 +163,7 @@
   </si>
   <si>
     <t>商品リスト</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>ショウヒン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -178,14 +178,14 @@
   </si>
   <si>
     <t>${appList[0].title} 申込書</t>
-    <rPh eb="23" sb="20">
+    <rPh sb="20" eb="23">
       <t>モウシコミショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>${appList[1].title} 申込書</t>
-    <rPh eb="23" sb="20">
+    <rPh sb="20" eb="23">
       <t>モウシコミショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -199,54 +199,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>テキスト</t>
-  </si>
-  <si>
-    <t>数値</t>
-  </si>
-  <si>
-    <t>ロックセル</t>
-  </si>
-  <si>
-    <t>非ロックセル</t>
-  </si>
-  <si>
-    <t>セルコメント</t>
-  </si>
-  <si>
-    <t>商品リスト</t>
-  </si>
-  <si>
-    <t>商品コード</t>
-  </si>
-  <si>
     <t>COTOS商材2018年 申込書</t>
   </si>
   <si>
     <t>テキスト１</t>
   </si>
   <si>
-    <t>商品名</t>
-  </si>
-  <si>
-    <t>参照式赤文字</t>
-  </si>
-  <si>
-    <t>数式（数値＋１）</t>
-  </si>
-  <si>
-    <t>単価</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>金額</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
@@ -257,9 +215,6 @@
   </si>
   <si>
     <t>月額DB</t>
-  </si>
-  <si>
-    <t>合計</t>
   </si>
   <si>
     <t>COTOS商材2019年 申込書</t>
@@ -473,56 +428,56 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf applyBorder="1" applyProtection="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf applyBorder="1" applyProtection="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyProtection="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf applyBorder="1" applyProtection="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf applyBorder="1" applyProtection="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyProtection="1" borderId="5" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyProtection="1" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="4" fillId="0" fontId="5" numFmtId="6" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="6" fillId="3" fontId="5" numFmtId="6" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="4" fillId="0" fontId="5" numFmtId="6" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="7" fillId="3" fontId="5" numFmtId="6" xfId="1"/>
-    <xf applyAlignment="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="6" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="6" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="7" name="通貨" xfId="1"/>
-    <cellStyle builtinId="0" name="標準" xfId="0"/>
+    <cellStyle name="通貨" xfId="1" builtinId="7"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -535,7 +490,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -586,17 +541,17 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP"/>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
             <a:t>本シートは保護シートです。</a:t>
           </a:r>
-          <a:endParaRPr altLang="ja-JP" lang="en-US"/>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
         </a:p>
         <a:p>
-          <a:pPr defTabSz="914400" eaLnBrk="1" fontAlgn="auto" hangingPunct="1" indent="0" latinLnBrk="0" lvl="0" marL="0" marR="0">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -614,7 +569,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr altLang="ja-JP" lang="ja-JP" sz="1100">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -626,7 +581,7 @@
             <a:t>保護パスワードは</a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="ja-JP" lang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -637,12 +592,12 @@
             </a:rPr>
             <a:t>cotos</a:t>
           </a:r>
-          <a:endParaRPr altLang="ja-JP" lang="ja-JP">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:endParaRPr altLang="en-US" lang="ja-JP"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -671,11 +626,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -726,7 +681,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -777,25 +732,25 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP"/>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
             <a:t>本シートは保護シートです。</a:t>
           </a:r>
-          <a:endParaRPr altLang="ja-JP" lang="en-US"/>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP"/>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
             <a:t>保護パスワードは</a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="ja-JP" lang="en-US"/>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
             <a:t>cotos</a:t>
           </a:r>
-          <a:endParaRPr altLang="en-US" lang="ja-JP"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -824,11 +779,11 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1" noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -883,10 +838,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -921,7 +876,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -956,7 +911,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1050,21 +1005,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1081,7 +1036,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1132,7 +1087,7 @@
   <a:objectDefaults>
     <a:spDef>
       <a:spPr/>
-      <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
       <a:lstStyle>
         <a:defPPr algn="l">
           <a:defRPr kumimoji="1" sz="1100"/>
@@ -1159,37 +1114,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" workbookViewId="0" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115">
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
   <cols>
-    <col min="6" max="6" customWidth="true" style="1" width="17.44140625" collapsed="true"/>
-    <col min="1" max="1" style="1" width="8.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="15.77734375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="19.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="14.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="17.44140625" collapsed="false"/>
-    <col min="7" max="16384" style="1" width="8.88671875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="17.44140625"/>
+    <col min="1" max="1" style="1" width="8.88671875"/>
+    <col min="2" max="2" customWidth="true" style="1" width="15.77734375"/>
+    <col min="3" max="3" customWidth="true" style="1" width="19.44140625"/>
+    <col min="4" max="4" customWidth="true" style="1" width="14.0"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.44140625"/>
+    <col min="7" max="16384" style="1" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="true">
       <c r="A1"/>
     </row>
-    <row customHeight="true" ht="24.75" r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="24.75" customHeight="true">
       <c r="C2" s="17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -1197,85 +1152,87 @@
     <row r="3" ht="20.25" customHeight="true"/>
     <row r="4" spans="1:6" ht="20.25" customHeight="true">
       <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="5">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="str">
         <f>C4</f>
+        <v>テキスト１</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="true">
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="n">
         <f>C5+1</f>
+        <v>5.0</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="true">
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="true">
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.25" customHeight="true">
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" ht="20.25" customHeight="true"/>
     <row r="10" spans="1:6" ht="20.25" customHeight="true">
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.25" customHeight="true">
       <c r="B11" s="7" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row ht="21.0" r="12" spans="1:6" thickBot="1" customHeight="true">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21.0" thickBot="1" customHeight="true">
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D12" s="13" t="n">
         <v>100.0</v>
@@ -1283,16 +1240,17 @@
       <c r="E12" s="10" t="n">
         <v>1.0</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="15" t="n">
         <f>D12*E12</f>
-      </c>
-    </row>
-    <row ht="21.0" r="13" spans="1:6" thickBot="1" customHeight="true">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21.0" thickBot="1" customHeight="true">
       <c r="B13" t="s" s="2">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D13" s="13" t="n">
         <v>1850.0</v>
@@ -1300,22 +1258,26 @@
       <c r="E13" s="10" t="n">
         <v>2.0</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="15" t="n">
         <f>D13*E13</f>
+        <v>3700.0</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="true">
       <c r="C14" t="s" s="11">
-        <v>44</v>
-      </c>
-      <c r="D14" s="14">
+        <v>6</v>
+      </c>
+      <c r="D14" s="14" t="n">
         <f>SUM(D12:D13)</f>
-      </c>
-      <c r="E14" s="12">
+        <v>1950.0</v>
+      </c>
+      <c r="E14" s="12" t="n">
         <f>SUM(E12:E13)</f>
-      </c>
-      <c r="F14" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="F14" s="16" t="n">
         <f>SUM(F12:F13)</f>
+        <v>3800.0</v>
       </c>
     </row>
     <row r="15" ht="20.25" customHeight="true"/>
@@ -1330,43 +1292,43 @@
     <row r="24" ht="20.25" customHeight="true"/>
     <row r="25" ht="20.25" customHeight="true"/>
   </sheetData>
-  <sheetProtection password="C404" selectLockedCells="1" sheet="1"/>
-  <mergeCells>
+  <sheetProtection password="C404" sheet="1" selectLockedCells="1"/>
+  <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1" scale="77"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" workbookViewId="0" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
   <cols>
-    <col min="6" max="6" customWidth="true" style="1" width="17.44140625" collapsed="true"/>
-    <col min="1" max="1" style="1" width="8.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="1" width="15.77734375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="1" width="19.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="1" width="14.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="1" width="17.44140625" collapsed="false"/>
-    <col min="7" max="16384" style="1" width="8.88671875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="17.44140625"/>
+    <col min="1" max="1" style="1" width="8.88671875"/>
+    <col min="2" max="2" customWidth="true" style="1" width="15.77734375"/>
+    <col min="3" max="3" customWidth="true" style="1" width="19.44140625"/>
+    <col min="4" max="4" customWidth="true" style="1" width="14.0"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.44140625"/>
+    <col min="7" max="16384" style="1" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="true">
       <c r="A1"/>
     </row>
-    <row customHeight="true" ht="24.75" r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="24.75" customHeight="true">
       <c r="C2" s="17" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -1374,85 +1336,87 @@
     <row r="3" ht="20.25" customHeight="true"/>
     <row r="4" spans="1:6" ht="20.25" customHeight="true">
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="5">
-        <f>'単一シート出力テンプレート (2)'!C4</f>
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f>C4</f>
+        <v>テキスト２</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="true">
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="3">
-        <f>'単一シート出力テンプレート (2)'!C5+1</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <f>C5+1</f>
+        <v>5.0</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="true">
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="true">
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.25" customHeight="true">
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" ht="20.25" customHeight="true"/>
     <row r="10" spans="1:6" ht="20.25" customHeight="true">
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.25" customHeight="true">
       <c r="B11" s="7" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row ht="21.0" r="12" spans="1:6" thickBot="1" customHeight="true">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21.0" thickBot="1" customHeight="true">
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D12" s="13" t="n">
         <v>1290.0</v>
@@ -1460,16 +1424,17 @@
       <c r="E12" s="10" t="n">
         <v>3.0</v>
       </c>
-      <c r="F12" s="15">
-        <f>'単一シート出力テンプレート (2)'!D12*'単一シート出力テンプレート (2)'!E12</f>
-      </c>
-    </row>
-    <row ht="21.0" r="13" spans="1:6" thickBot="1" customHeight="true">
+      <c r="F12" s="15" t="n">
+        <f>D12*E12</f>
+        <v>3870.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21.0" thickBot="1" customHeight="true">
       <c r="B13" t="s" s="2">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D13" s="13" t="n">
         <v>1980.0</v>
@@ -1477,22 +1442,26 @@
       <c r="E13" s="10" t="n">
         <v>5.0</v>
       </c>
-      <c r="F13" s="15">
-        <f>'単一シート出力テンプレート (2)'!D13*'単一シート出力テンプレート (2)'!E13</f>
+      <c r="F13" s="15" t="n">
+        <f>D13*E13</f>
+        <v>9900.0</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="true">
       <c r="C14" t="s" s="11">
-        <v>44</v>
-      </c>
-      <c r="D14" s="14">
-        <f>SUM('単一シート出力テンプレート (2)'!D12:'単一シート出力テンプレート (2)'!D13)</f>
-      </c>
-      <c r="E14" s="12">
-        <f>SUM('単一シート出力テンプレート (2)'!E12:'単一シート出力テンプレート (2)'!E13)</f>
-      </c>
-      <c r="F14" s="16">
-        <f>SUM('単一シート出力テンプレート (2)'!F12:'単一シート出力テンプレート (2)'!F13)</f>
+        <v>6</v>
+      </c>
+      <c r="D14" s="14" t="n">
+        <f>SUM(D12:D13)</f>
+        <v>3270.0</v>
+      </c>
+      <c r="E14" s="12" t="n">
+        <f>SUM(E12:E13)</f>
+        <v>8.0</v>
+      </c>
+      <c r="F14" s="16" t="n">
+        <f>SUM(F12:F13)</f>
+        <v>13770.0</v>
       </c>
     </row>
     <row r="15" ht="20.25" customHeight="true"/>
@@ -1507,13 +1476,13 @@
     <row r="24" ht="20.25" customHeight="true"/>
     <row r="25" ht="20.25" customHeight="true"/>
   </sheetData>
-  <sheetProtection password="C404" selectLockedCells="1" sheet="1"/>
-  <mergeCells>
+  <sheetProtection password="C404" sheet="1" selectLockedCells="1"/>
+  <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1" scale="77"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
